--- a/data/134/DEUSTATIS/old/Index of production in manufacturing (main groups and aggregates) - 2001.xlsx
+++ b/data/134/DEUSTATIS/old/Index of production in manufacturing (main groups and aggregates) - 2001.xlsx
@@ -206,7 +206,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 10:01:44</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 10:56:34</t>
   </si>
 </sst>
 </file>
@@ -6747,7 +6747,7 @@
         <v>82.5</v>
       </c>
       <c r="AB14" t="n" s="10">
-        <v>82.4</v>
+        <v>82.5</v>
       </c>
       <c r="AC14" t="n" s="10">
         <v>82.4</v>
@@ -6789,7 +6789,7 @@
         <v>84.5</v>
       </c>
       <c r="AP14" t="n" s="10">
-        <v>84.7</v>
+        <v>84.6</v>
       </c>
       <c r="AQ14" t="n" s="10">
         <v>84.7</v>
@@ -6816,7 +6816,7 @@
         <v>85.3</v>
       </c>
       <c r="AY14" t="n" s="10">
-        <v>85.6</v>
+        <v>85.5</v>
       </c>
       <c r="AZ14" t="n" s="10">
         <v>85.8</v>
@@ -6825,7 +6825,7 @@
         <v>86.0</v>
       </c>
       <c r="BB14" t="n" s="10">
-        <v>86.4</v>
+        <v>86.3</v>
       </c>
       <c r="BC14" t="n" s="10">
         <v>86.7</v>
@@ -6879,7 +6879,7 @@
         <v>94.2</v>
       </c>
       <c r="BT14" t="n" s="10">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="BU14" t="n" s="10">
         <v>95.2</v>
@@ -6894,7 +6894,7 @@
         <v>96.5</v>
       </c>
       <c r="BY14" t="n" s="10">
-        <v>96.9</v>
+        <v>97.0</v>
       </c>
       <c r="BZ14" t="n" s="10">
         <v>97.4</v>
@@ -6963,7 +6963,7 @@
         <v>85.7</v>
       </c>
       <c r="CV14" t="n" s="10">
-        <v>84.3</v>
+        <v>84.4</v>
       </c>
       <c r="CW14" t="n" s="10">
         <v>83.3</v>
@@ -6993,7 +6993,7 @@
         <v>85.3</v>
       </c>
       <c r="DF14" t="n" s="10">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="DG14" t="n" s="10">
         <v>87.2</v>
@@ -8802,7 +8802,7 @@
         <v>84.6</v>
       </c>
       <c r="AQ20" t="n" s="10">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="AR20" t="n" s="10">
         <v>84.9</v>
@@ -8886,7 +8886,7 @@
         <v>94.1</v>
       </c>
       <c r="BS20" t="n" s="10">
-        <v>94.5</v>
+        <v>94.6</v>
       </c>
       <c r="BT20" t="n" s="10">
         <v>95.1</v>
@@ -9021,7 +9021,7 @@
         <v>90.9</v>
       </c>
       <c r="DL20" t="n" s="10">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="DM20" t="n" s="10">
         <v>92.6</v>
@@ -9069,7 +9069,7 @@
         <v>98.2</v>
       </c>
       <c r="EB20" t="n" s="10">
-        <v>98.2</v>
+        <v>98.1</v>
       </c>
       <c r="EC20" t="n" s="10">
         <v>98.1</v>
@@ -10854,7 +10854,7 @@
         <v>85.4</v>
       </c>
       <c r="BE26" t="n" s="10">
-        <v>85.9</v>
+        <v>85.8</v>
       </c>
       <c r="BF26" t="n" s="10">
         <v>86.3</v>
@@ -10908,7 +10908,7 @@
         <v>94.9</v>
       </c>
       <c r="BW26" t="n" s="10">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="BX26" t="n" s="10">
         <v>95.9</v>
@@ -10917,7 +10917,7 @@
         <v>96.4</v>
       </c>
       <c r="BZ26" t="n" s="10">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="CA26" t="n" s="10">
         <v>97.3</v>
@@ -10941,7 +10941,7 @@
         <v>99.8</v>
       </c>
       <c r="CH26" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="CI26" t="n" s="10">
         <v>100.4</v>
@@ -11070,19 +11070,19 @@
         <v>98.2</v>
       </c>
       <c r="DY26" t="n" s="10">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="DZ26" t="n" s="10">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="EA26" t="n" s="10">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="EB26" t="n" s="10">
         <v>98.2</v>
       </c>
       <c r="EC26" t="n" s="10">
-        <v>98.1</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="27" ht="22.5" customHeight="true">
@@ -12873,13 +12873,13 @@
         <v>87.5</v>
       </c>
       <c r="BH32" t="n" s="10">
-        <v>87.9</v>
+        <v>87.8</v>
       </c>
       <c r="BI32" t="n" s="10">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="BJ32" t="n" s="10">
-        <v>88.7</v>
+        <v>88.6</v>
       </c>
       <c r="BK32" t="n" s="10">
         <v>89.1</v>
@@ -12900,13 +12900,13 @@
         <v>92.0</v>
       </c>
       <c r="BQ32" t="n" s="10">
-        <v>92.6</v>
+        <v>92.7</v>
       </c>
       <c r="BR32" t="n" s="10">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="BS32" t="n" s="10">
-        <v>93.8</v>
+        <v>93.9</v>
       </c>
       <c r="BT32" t="n" s="10">
         <v>94.5</v>
@@ -12924,7 +12924,7 @@
         <v>96.6</v>
       </c>
       <c r="BY32" t="n" s="10">
-        <v>97.0</v>
+        <v>97.1</v>
       </c>
       <c r="BZ32" t="n" s="10">
         <v>97.5</v>
@@ -12981,7 +12981,7 @@
         <v>92.7</v>
       </c>
       <c r="CR32" t="n" s="10">
-        <v>90.6</v>
+        <v>90.7</v>
       </c>
       <c r="CS32" t="n" s="10">
         <v>88.6</v>
@@ -13020,7 +13020,7 @@
         <v>83.3</v>
       </c>
       <c r="DE32" t="n" s="10">
-        <v>84.4</v>
+        <v>84.3</v>
       </c>
       <c r="DF32" t="n" s="10">
         <v>85.4</v>
@@ -13041,7 +13041,7 @@
         <v>90.1</v>
       </c>
       <c r="DL32" t="n" s="10">
-        <v>91.0</v>
+        <v>90.9</v>
       </c>
       <c r="DM32" t="n" s="10">
         <v>91.9</v>
@@ -13080,19 +13080,19 @@
         <v>98.5</v>
       </c>
       <c r="DY32" t="n" s="10">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="DZ32" t="n" s="10">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="EA32" t="n" s="10">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="EB32" t="n" s="10">
         <v>98.5</v>
       </c>
       <c r="EC32" t="n" s="10">
-        <v>98.4</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="33" ht="22.5" customHeight="true">
@@ -14781,7 +14781,7 @@
         <v>81.3</v>
       </c>
       <c r="Z38" t="n" s="10">
-        <v>80.6</v>
+        <v>80.7</v>
       </c>
       <c r="AA38" t="n" s="10">
         <v>80.8</v>
@@ -14805,19 +14805,19 @@
         <v>81.6</v>
       </c>
       <c r="AH38" t="n" s="10">
-        <v>82.0</v>
+        <v>81.9</v>
       </c>
       <c r="AI38" t="n" s="10">
         <v>82.3</v>
       </c>
       <c r="AJ38" t="n" s="10">
-        <v>82.6</v>
+        <v>82.5</v>
       </c>
       <c r="AK38" t="n" s="10">
-        <v>82.9</v>
+        <v>82.8</v>
       </c>
       <c r="AL38" t="n" s="10">
-        <v>83.2</v>
+        <v>83.1</v>
       </c>
       <c r="AM38" t="n" s="10">
         <v>83.5</v>
@@ -14832,7 +14832,7 @@
         <v>84.3</v>
       </c>
       <c r="AQ38" t="n" s="10">
-        <v>84.5</v>
+        <v>84.4</v>
       </c>
       <c r="AR38" t="n" s="10">
         <v>84.6</v>
@@ -14850,7 +14850,7 @@
         <v>85.0</v>
       </c>
       <c r="AW38" t="n" s="10">
-        <v>85.2</v>
+        <v>85.1</v>
       </c>
       <c r="AX38" t="n" s="10">
         <v>85.4</v>
@@ -14874,7 +14874,7 @@
         <v>86.9</v>
       </c>
       <c r="BE38" t="n" s="10">
-        <v>87.3</v>
+        <v>87.2</v>
       </c>
       <c r="BF38" t="n" s="10">
         <v>87.7</v>
@@ -14895,7 +14895,7 @@
         <v>90.4</v>
       </c>
       <c r="BL38" t="n" s="10">
-        <v>91.2</v>
+        <v>91.1</v>
       </c>
       <c r="BM38" t="n" s="10">
         <v>91.9</v>
@@ -14913,7 +14913,7 @@
         <v>94.9</v>
       </c>
       <c r="BR38" t="n" s="10">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
       <c r="BS38" t="n" s="10">
         <v>96.3</v>
@@ -14928,7 +14928,7 @@
         <v>98.2</v>
       </c>
       <c r="BW38" t="n" s="10">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="BX38" t="n" s="10">
         <v>99.1</v>
@@ -14937,7 +14937,7 @@
         <v>99.5</v>
       </c>
       <c r="BZ38" t="n" s="10">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="CA38" t="n" s="10">
         <v>100.2</v>
@@ -14970,7 +14970,7 @@
         <v>103.1</v>
       </c>
       <c r="CK38" t="n" s="10">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="CL38" t="n" s="10">
         <v>102.0</v>
@@ -15027,7 +15027,7 @@
         <v>83.8</v>
       </c>
       <c r="DD38" t="n" s="10">
-        <v>85.4</v>
+        <v>85.3</v>
       </c>
       <c r="DE38" t="n" s="10">
         <v>86.9</v>
@@ -15060,7 +15060,7 @@
         <v>96.1</v>
       </c>
       <c r="DO38" t="n" s="10">
-        <v>97.0</v>
+        <v>96.9</v>
       </c>
       <c r="DP38" t="n" s="10">
         <v>97.7</v>
@@ -15078,7 +15078,7 @@
         <v>100.1</v>
       </c>
       <c r="DU38" t="n" s="10">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="DV38" t="n" s="10">
         <v>100.7</v>
@@ -16797,7 +16797,7 @@
         <v>74.5</v>
       </c>
       <c r="AB44" t="n" s="10">
-        <v>74.2</v>
+        <v>74.3</v>
       </c>
       <c r="AC44" t="n" s="10">
         <v>73.8</v>
@@ -16818,7 +16818,7 @@
         <v>74.1</v>
       </c>
       <c r="AI44" t="n" s="10">
-        <v>74.5</v>
+        <v>74.4</v>
       </c>
       <c r="AJ44" t="n" s="10">
         <v>74.8</v>
@@ -16827,10 +16827,10 @@
         <v>75.1</v>
       </c>
       <c r="AL44" t="n" s="10">
-        <v>75.6</v>
+        <v>75.5</v>
       </c>
       <c r="AM44" t="n" s="10">
-        <v>76.1</v>
+        <v>76.0</v>
       </c>
       <c r="AN44" t="n" s="10">
         <v>76.4</v>
@@ -16857,7 +16857,7 @@
         <v>77.5</v>
       </c>
       <c r="AV44" t="n" s="10">
-        <v>77.6</v>
+        <v>77.5</v>
       </c>
       <c r="AW44" t="n" s="10">
         <v>77.8</v>
@@ -16893,19 +16893,19 @@
         <v>82.1</v>
       </c>
       <c r="BH44" t="n" s="10">
-        <v>82.5</v>
+        <v>82.4</v>
       </c>
       <c r="BI44" t="n" s="10">
         <v>82.8</v>
       </c>
       <c r="BJ44" t="n" s="10">
-        <v>83.2</v>
+        <v>83.1</v>
       </c>
       <c r="BK44" t="n" s="10">
-        <v>83.6</v>
+        <v>83.5</v>
       </c>
       <c r="BL44" t="n" s="10">
-        <v>84.1</v>
+        <v>84.0</v>
       </c>
       <c r="BM44" t="n" s="10">
         <v>84.6</v>
@@ -16920,7 +16920,7 @@
         <v>86.3</v>
       </c>
       <c r="BQ44" t="n" s="10">
-        <v>86.9</v>
+        <v>87.0</v>
       </c>
       <c r="BR44" t="n" s="10">
         <v>87.6</v>
@@ -16929,7 +16929,7 @@
         <v>88.2</v>
       </c>
       <c r="BT44" t="n" s="10">
-        <v>88.8</v>
+        <v>88.9</v>
       </c>
       <c r="BU44" t="n" s="10">
         <v>89.5</v>
@@ -16941,7 +16941,7 @@
         <v>90.7</v>
       </c>
       <c r="BX44" t="n" s="10">
-        <v>91.2</v>
+        <v>91.3</v>
       </c>
       <c r="BY44" t="n" s="10">
         <v>91.9</v>
@@ -16971,10 +16971,10 @@
         <v>96.6</v>
       </c>
       <c r="CH44" t="n" s="10">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="CI44" t="n" s="10">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="CJ44" t="n" s="10">
         <v>97.7</v>
@@ -17019,7 +17019,7 @@
         <v>76.7</v>
       </c>
       <c r="CX44" t="n" s="10">
-        <v>75.4</v>
+        <v>75.5</v>
       </c>
       <c r="CY44" t="n" s="10">
         <v>74.7</v>
@@ -17043,7 +17043,7 @@
         <v>76.9</v>
       </c>
       <c r="DF44" t="n" s="10">
-        <v>78.0</v>
+        <v>77.9</v>
       </c>
       <c r="DG44" t="n" s="10">
         <v>79.0</v>
@@ -17094,7 +17094,7 @@
         <v>94.5</v>
       </c>
       <c r="DW44" t="n" s="10">
-        <v>95.1</v>
+        <v>95.0</v>
       </c>
       <c r="DX44" t="n" s="10">
         <v>95.5</v>
@@ -18810,31 +18810,31 @@
         <v>100.4</v>
       </c>
       <c r="AC50" t="n" s="10">
+        <v>100.0</v>
+      </c>
+      <c r="AD50" t="n" s="10">
+        <v>99.8</v>
+      </c>
+      <c r="AE50" t="n" s="10">
+        <v>99.7</v>
+      </c>
+      <c r="AF50" t="n" s="10">
         <v>100.1</v>
       </c>
-      <c r="AD50" t="n" s="10">
-        <v>99.9</v>
-      </c>
-      <c r="AE50" t="n" s="10">
-        <v>99.8</v>
-      </c>
-      <c r="AF50" t="n" s="10">
-        <v>100.2</v>
-      </c>
       <c r="AG50" t="n" s="10">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="AH50" t="n" s="10">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="AI50" t="n" s="10">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="AJ50" t="n" s="10">
+        <v>101.6</v>
+      </c>
+      <c r="AK50" t="n" s="10">
         <v>101.7</v>
-      </c>
-      <c r="AK50" t="n" s="10">
-        <v>101.8</v>
       </c>
       <c r="AL50" t="n" s="10">
         <v>101.9</v>
@@ -18852,19 +18852,19 @@
         <v>101.5</v>
       </c>
       <c r="AQ50" t="n" s="10">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="AR50" t="n" s="10">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="AS50" t="n" s="10">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="AT50" t="n" s="10">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="AU50" t="n" s="10">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="AV50" t="n" s="10">
         <v>99.1</v>
@@ -18885,16 +18885,16 @@
         <v>98.9</v>
       </c>
       <c r="BB50" t="n" s="10">
-        <v>99.0</v>
+        <v>99.1</v>
       </c>
       <c r="BC50" t="n" s="10">
         <v>99.4</v>
       </c>
       <c r="BD50" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="BE50" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="BF50" t="n" s="10">
         <v>100.7</v>
@@ -18951,70 +18951,70 @@
         <v>110.4</v>
       </c>
       <c r="BX50" t="n" s="10">
+        <v>110.3</v>
+      </c>
+      <c r="BY50" t="n" s="10">
         <v>110.2</v>
       </c>
-      <c r="BY50" t="n" s="10">
+      <c r="BZ50" t="n" s="10">
         <v>110.1</v>
       </c>
-      <c r="BZ50" t="n" s="10">
-        <v>110.0</v>
-      </c>
       <c r="CA50" t="n" s="10">
-        <v>110.0</v>
+        <v>110.1</v>
       </c>
       <c r="CB50" t="n" s="10">
         <v>109.9</v>
       </c>
       <c r="CC50" t="n" s="10">
-        <v>109.8</v>
+        <v>109.7</v>
       </c>
       <c r="CD50" t="n" s="10">
-        <v>109.7</v>
+        <v>109.5</v>
       </c>
       <c r="CE50" t="n" s="10">
-        <v>109.6</v>
+        <v>109.3</v>
       </c>
       <c r="CF50" t="n" s="10">
-        <v>109.7</v>
+        <v>109.2</v>
       </c>
       <c r="CG50" t="n" s="10">
-        <v>109.7</v>
+        <v>109.1</v>
       </c>
       <c r="CH50" t="n" s="10">
-        <v>109.7</v>
+        <v>109.1</v>
       </c>
       <c r="CI50" t="n" s="10">
-        <v>109.6</v>
+        <v>108.9</v>
       </c>
       <c r="CJ50" t="n" s="10">
-        <v>109.3</v>
+        <v>108.5</v>
       </c>
       <c r="CK50" t="n" s="10">
-        <v>108.6</v>
+        <v>107.7</v>
       </c>
       <c r="CL50" t="n" s="10">
-        <v>107.6</v>
+        <v>106.8</v>
       </c>
       <c r="CM50" t="n" s="10">
-        <v>106.3</v>
+        <v>105.5</v>
       </c>
       <c r="CN50" t="n" s="10">
-        <v>104.7</v>
+        <v>104.1</v>
       </c>
       <c r="CO50" t="n" s="10">
-        <v>103.0</v>
+        <v>102.4</v>
       </c>
       <c r="CP50" t="n" s="10">
-        <v>101.1</v>
+        <v>100.6</v>
       </c>
       <c r="CQ50" t="n" s="10">
-        <v>99.0</v>
+        <v>98.7</v>
       </c>
       <c r="CR50" t="n" s="10">
-        <v>96.9</v>
+        <v>96.7</v>
       </c>
       <c r="CS50" t="n" s="10">
-        <v>94.9</v>
+        <v>94.7</v>
       </c>
       <c r="CT50" t="n" s="10">
         <v>92.9</v>
@@ -19023,10 +19023,10 @@
         <v>91.3</v>
       </c>
       <c r="CV50" t="n" s="10">
-        <v>89.9</v>
+        <v>90.0</v>
       </c>
       <c r="CW50" t="n" s="10">
-        <v>88.8</v>
+        <v>88.9</v>
       </c>
       <c r="CX50" t="n" s="10">
         <v>88.1</v>
@@ -19071,25 +19071,25 @@
         <v>96.3</v>
       </c>
       <c r="DL50" t="n" s="10">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="DM50" t="n" s="10">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="DN50" t="n" s="10">
         <v>97.8</v>
       </c>
       <c r="DO50" t="n" s="10">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="DP50" t="n" s="10">
         <v>98.7</v>
       </c>
       <c r="DQ50" t="n" s="10">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="DR50" t="n" s="10">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="DS50" t="n" s="10">
         <v>100.1</v>
@@ -19116,10 +19116,10 @@
         <v>100.7</v>
       </c>
       <c r="EA50" t="n" s="10">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="EB50" t="n" s="10">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="EC50" t="n" s="10">
         <v>99.9</v>
@@ -20835,7 +20835,7 @@
         <v>90.9</v>
       </c>
       <c r="AH56" t="n" s="10">
-        <v>90.8</v>
+        <v>90.9</v>
       </c>
       <c r="AI56" t="n" s="10">
         <v>90.8</v>
@@ -20904,7 +20904,7 @@
         <v>94.9</v>
       </c>
       <c r="BE56" t="n" s="10">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="BF56" t="n" s="10">
         <v>95.5</v>
@@ -22851,7 +22851,7 @@
         <v>92.5</v>
       </c>
       <c r="AJ62" t="n" s="10">
-        <v>92.6</v>
+        <v>92.5</v>
       </c>
       <c r="AK62" t="n" s="10">
         <v>92.6</v>
@@ -22950,7 +22950,7 @@
         <v>98.8</v>
       </c>
       <c r="BQ62" t="n" s="10">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="BR62" t="n" s="10">
         <v>99.5</v>
@@ -22962,7 +22962,7 @@
         <v>100.4</v>
       </c>
       <c r="BU62" t="n" s="10">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="BV62" t="n" s="10">
         <v>101.1</v>
@@ -22998,7 +22998,7 @@
         <v>102.4</v>
       </c>
       <c r="CG62" t="n" s="10">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="CH62" t="n" s="10">
         <v>102.1</v>
@@ -23082,7 +23082,7 @@
         <v>96.5</v>
       </c>
       <c r="DI62" t="n" s="10">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="DJ62" t="n" s="10">
         <v>97.0</v>
@@ -23130,13 +23130,13 @@
         <v>99.4</v>
       </c>
       <c r="DY62" t="n" s="10">
-        <v>99.2</v>
+        <v>99.1</v>
       </c>
       <c r="DZ62" t="n" s="10">
         <v>98.9</v>
       </c>
       <c r="EA62" t="n" s="10">
-        <v>98.7</v>
+        <v>98.6</v>
       </c>
       <c r="EB62" t="n" s="10">
         <v>98.4</v>
@@ -24957,7 +24957,7 @@
         <v>110.0</v>
       </c>
       <c r="BP68" t="n" s="10">
-        <v>109.4</v>
+        <v>109.3</v>
       </c>
       <c r="BQ68" t="n" s="10">
         <v>108.6</v>
@@ -24972,10 +24972,10 @@
         <v>106.5</v>
       </c>
       <c r="BU68" t="n" s="10">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="BV68" t="n" s="10">
-        <v>106.1</v>
+        <v>106.0</v>
       </c>
       <c r="BW68" t="n" s="10">
         <v>106.2</v>
@@ -25047,7 +25047,7 @@
         <v>101.2</v>
       </c>
       <c r="CT68" t="n" s="10">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="CU68" t="n" s="10">
         <v>100.0</v>
@@ -25071,7 +25071,7 @@
         <v>100.1</v>
       </c>
       <c r="DB68" t="n" s="10">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="DC68" t="n" s="10">
         <v>100.8</v>
@@ -25140,7 +25140,7 @@
         <v>97.9</v>
       </c>
       <c r="DY68" t="n" s="10">
-        <v>97.7</v>
+        <v>97.6</v>
       </c>
       <c r="DZ68" t="n" s="10">
         <v>97.6</v>
@@ -26841,13 +26841,13 @@
         <v>129.9</v>
       </c>
       <c r="Z74" t="n" s="10">
-        <v>129.2</v>
+        <v>129.0</v>
       </c>
       <c r="AA74" t="n" s="10">
-        <v>129.1</v>
+        <v>129.0</v>
       </c>
       <c r="AB74" t="n" s="10">
-        <v>129.0</v>
+        <v>128.9</v>
       </c>
       <c r="AC74" t="n" s="10">
         <v>128.8</v>
@@ -26859,16 +26859,16 @@
         <v>128.7</v>
       </c>
       <c r="AF74" t="n" s="10">
-        <v>128.9</v>
+        <v>129.0</v>
       </c>
       <c r="AG74" t="n" s="10">
-        <v>129.4</v>
+        <v>129.5</v>
       </c>
       <c r="AH74" t="n" s="10">
         <v>130.1</v>
       </c>
       <c r="AI74" t="n" s="10">
-        <v>130.8</v>
+        <v>130.9</v>
       </c>
       <c r="AJ74" t="n" s="10">
         <v>131.6</v>
@@ -26895,49 +26895,49 @@
         <v>137.3</v>
       </c>
       <c r="AR74" t="n" s="10">
-        <v>137.5</v>
+        <v>137.6</v>
       </c>
       <c r="AS74" t="n" s="10">
-        <v>137.7</v>
+        <v>137.8</v>
       </c>
       <c r="AT74" t="n" s="10">
-        <v>137.8</v>
+        <v>138.0</v>
       </c>
       <c r="AU74" t="n" s="10">
-        <v>138.0</v>
+        <v>138.3</v>
       </c>
       <c r="AV74" t="n" s="10">
-        <v>138.2</v>
+        <v>138.5</v>
       </c>
       <c r="AW74" t="n" s="10">
-        <v>138.5</v>
+        <v>138.8</v>
       </c>
       <c r="AX74" t="n" s="10">
-        <v>138.7</v>
+        <v>139.1</v>
       </c>
       <c r="AY74" t="n" s="10">
-        <v>138.9</v>
+        <v>139.2</v>
       </c>
       <c r="AZ74" t="n" s="10">
-        <v>139.1</v>
+        <v>139.4</v>
       </c>
       <c r="BA74" t="n" s="10">
+        <v>139.6</v>
+      </c>
+      <c r="BB74" t="n" s="10">
+        <v>139.6</v>
+      </c>
+      <c r="BC74" t="n" s="10">
+        <v>139.6</v>
+      </c>
+      <c r="BD74" t="n" s="10">
+        <v>139.5</v>
+      </c>
+      <c r="BE74" t="n" s="10">
+        <v>139.4</v>
+      </c>
+      <c r="BF74" t="n" s="10">
         <v>139.3</v>
-      </c>
-      <c r="BB74" t="n" s="10">
-        <v>139.3</v>
-      </c>
-      <c r="BC74" t="n" s="10">
-        <v>139.3</v>
-      </c>
-      <c r="BD74" t="n" s="10">
-        <v>139.3</v>
-      </c>
-      <c r="BE74" t="n" s="10">
-        <v>139.3</v>
-      </c>
-      <c r="BF74" t="n" s="10">
-        <v>139.2</v>
       </c>
       <c r="BG74" t="n" s="10">
         <v>139.0</v>
@@ -26949,13 +26949,13 @@
         <v>138.6</v>
       </c>
       <c r="BJ74" t="n" s="10">
-        <v>138.4</v>
+        <v>138.3</v>
       </c>
       <c r="BK74" t="n" s="10">
-        <v>138.2</v>
+        <v>138.1</v>
       </c>
       <c r="BL74" t="n" s="10">
-        <v>138.0</v>
+        <v>137.9</v>
       </c>
       <c r="BM74" t="n" s="10">
         <v>137.9</v>
@@ -26967,7 +26967,7 @@
         <v>137.6</v>
       </c>
       <c r="BP74" t="n" s="10">
-        <v>137.6</v>
+        <v>137.5</v>
       </c>
       <c r="BQ74" t="n" s="10">
         <v>137.5</v>
@@ -26982,7 +26982,7 @@
         <v>138.2</v>
       </c>
       <c r="BU74" t="n" s="10">
-        <v>138.7</v>
+        <v>138.6</v>
       </c>
       <c r="BV74" t="n" s="10">
         <v>139.1</v>
@@ -27009,22 +27009,22 @@
         <v>139.4</v>
       </c>
       <c r="CD74" t="n" s="10">
-        <v>138.7</v>
+        <v>138.8</v>
       </c>
       <c r="CE74" t="n" s="10">
-        <v>137.9</v>
+        <v>138.0</v>
       </c>
       <c r="CF74" t="n" s="10">
-        <v>137.0</v>
+        <v>137.1</v>
       </c>
       <c r="CG74" t="n" s="10">
-        <v>136.2</v>
+        <v>136.3</v>
       </c>
       <c r="CH74" t="n" s="10">
-        <v>135.4</v>
+        <v>135.5</v>
       </c>
       <c r="CI74" t="n" s="10">
-        <v>134.6</v>
+        <v>134.7</v>
       </c>
       <c r="CJ74" t="n" s="10">
         <v>133.8</v>
@@ -27063,7 +27063,7 @@
         <v>123.8</v>
       </c>
       <c r="CV74" t="n" s="10">
-        <v>123.1</v>
+        <v>123.0</v>
       </c>
       <c r="CW74" t="n" s="10">
         <v>122.2</v>
@@ -27138,7 +27138,7 @@
         <v>114.9</v>
       </c>
       <c r="DU74" t="n" s="10">
-        <v>114.7</v>
+        <v>114.6</v>
       </c>
       <c r="DV74" t="n" s="10">
         <v>114.5</v>
@@ -27162,7 +27162,7 @@
         <v>115.3</v>
       </c>
       <c r="EC74" t="n" s="10">
-        <v>115.3</v>
+        <v>115.4</v>
       </c>
     </row>
     <row r="75" ht="22.5" customHeight="true">
@@ -28860,7 +28860,7 @@
         <v>154.7</v>
       </c>
       <c r="AC80" t="n" s="10">
-        <v>156.1</v>
+        <v>156.2</v>
       </c>
       <c r="AD80" t="n" s="10">
         <v>157.5</v>
@@ -28875,7 +28875,7 @@
         <v>159.5</v>
       </c>
       <c r="AH80" t="n" s="10">
-        <v>159.4</v>
+        <v>159.5</v>
       </c>
       <c r="AI80" t="n" s="10">
         <v>159.1</v>
@@ -28932,7 +28932,7 @@
         <v>150.7</v>
       </c>
       <c r="BA80" t="n" s="10">
-        <v>150.9</v>
+        <v>151.0</v>
       </c>
       <c r="BB80" t="n" s="10">
         <v>151.0</v>
@@ -28986,7 +28986,7 @@
         <v>146.6</v>
       </c>
       <c r="BS80" t="n" s="10">
-        <v>149.5</v>
+        <v>149.4</v>
       </c>
       <c r="BT80" t="n" s="10">
         <v>153.0</v>
@@ -29004,7 +29004,7 @@
         <v>171.5</v>
       </c>
       <c r="BY80" t="n" s="10">
-        <v>175.9</v>
+        <v>175.8</v>
       </c>
       <c r="BZ80" t="n" s="10">
         <v>179.9</v>
@@ -29091,10 +29091,10 @@
         <v>130.9</v>
       </c>
       <c r="DB80" t="n" s="10">
-        <v>128.8</v>
+        <v>128.9</v>
       </c>
       <c r="DC80" t="n" s="10">
-        <v>127.4</v>
+        <v>127.5</v>
       </c>
       <c r="DD80" t="n" s="10">
         <v>126.6</v>
@@ -29106,7 +29106,7 @@
         <v>126.2</v>
       </c>
       <c r="DG80" t="n" s="10">
-        <v>126.3</v>
+        <v>126.4</v>
       </c>
       <c r="DH80" t="n" s="10">
         <v>126.9</v>
@@ -29121,16 +29121,16 @@
         <v>128.4</v>
       </c>
       <c r="DL80" t="n" s="10">
+        <v>128.6</v>
+      </c>
+      <c r="DM80" t="n" s="10">
         <v>128.5</v>
-      </c>
-      <c r="DM80" t="n" s="10">
-        <v>128.4</v>
       </c>
       <c r="DN80" t="n" s="10">
         <v>128.1</v>
       </c>
       <c r="DO80" t="n" s="10">
-        <v>127.8</v>
+        <v>127.9</v>
       </c>
       <c r="DP80" t="n" s="10">
         <v>127.7</v>
@@ -29142,7 +29142,7 @@
         <v>127.9</v>
       </c>
       <c r="DS80" t="n" s="10">
-        <v>127.9</v>
+        <v>128.0</v>
       </c>
       <c r="DT80" t="n" s="10">
         <v>127.9</v>
@@ -30879,7 +30879,7 @@
         <v>79.3</v>
       </c>
       <c r="AF86" t="n" s="10">
-        <v>79.4</v>
+        <v>79.5</v>
       </c>
       <c r="AG86" t="n" s="10">
         <v>79.8</v>
@@ -30948,7 +30948,7 @@
         <v>84.7</v>
       </c>
       <c r="BC86" t="n" s="10">
-        <v>85.2</v>
+        <v>85.1</v>
       </c>
       <c r="BD86" t="n" s="10">
         <v>85.6</v>
@@ -31014,7 +31014,7 @@
         <v>95.8</v>
       </c>
       <c r="BY86" t="n" s="10">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="BZ86" t="n" s="10">
         <v>96.7</v>
@@ -31023,16 +31023,16 @@
         <v>97.1</v>
       </c>
       <c r="CB86" t="n" s="10">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="CC86" t="n" s="10">
-        <v>97.9</v>
+        <v>98.0</v>
       </c>
       <c r="CD86" t="n" s="10">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="CE86" t="n" s="10">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="CF86" t="n" s="10">
         <v>99.2</v>
@@ -31044,7 +31044,7 @@
         <v>100.0</v>
       </c>
       <c r="CI86" t="n" s="10">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="CJ86" t="n" s="10">
         <v>100.3</v>
@@ -31077,7 +31077,7 @@
         <v>87.9</v>
       </c>
       <c r="CT86" t="n" s="10">
-        <v>85.9</v>
+        <v>86.0</v>
       </c>
       <c r="CU86" t="n" s="10">
         <v>84.2</v>
@@ -31086,7 +31086,7 @@
         <v>82.6</v>
       </c>
       <c r="CW86" t="n" s="10">
-        <v>81.4</v>
+        <v>81.5</v>
       </c>
       <c r="CX86" t="n" s="10">
         <v>80.6</v>
@@ -31167,19 +31167,19 @@
         <v>98.0</v>
       </c>
       <c r="DX86" t="n" s="10">
+        <v>98.1</v>
+      </c>
+      <c r="DY86" t="n" s="10">
         <v>98.2</v>
       </c>
-      <c r="DY86" t="n" s="10">
-        <v>98.3</v>
-      </c>
       <c r="DZ86" t="n" s="10">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="EA86" t="n" s="10">
         <v>98.2</v>
       </c>
       <c r="EB86" t="n" s="10">
-        <v>98.2</v>
+        <v>98.1</v>
       </c>
       <c r="EC86" t="n" s="10">
         <v>98.0</v>
@@ -32898,7 +32898,7 @@
         <v>102.7</v>
       </c>
       <c r="AI92" t="n" s="10">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="AJ92" t="n" s="10">
         <v>102.7</v>
@@ -32907,7 +32907,7 @@
         <v>102.8</v>
       </c>
       <c r="AL92" t="n" s="10">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="AM92" t="n" s="10">
         <v>102.8</v>
@@ -32916,7 +32916,7 @@
         <v>103.0</v>
       </c>
       <c r="AO92" t="n" s="10">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="AP92" t="n" s="10">
         <v>103.5</v>
@@ -32943,70 +32943,70 @@
         <v>105.3</v>
       </c>
       <c r="AX92" t="n" s="10">
-        <v>105.3</v>
+        <v>105.2</v>
       </c>
       <c r="AY92" t="n" s="10">
-        <v>105.3</v>
+        <v>105.2</v>
       </c>
       <c r="AZ92" t="n" s="10">
-        <v>105.3</v>
+        <v>105.2</v>
       </c>
       <c r="BA92" t="n" s="10">
-        <v>105.3</v>
+        <v>105.2</v>
       </c>
       <c r="BB92" t="n" s="10">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="BC92" t="n" s="10">
         <v>105.1</v>
       </c>
       <c r="BD92" t="n" s="10">
-        <v>105.0</v>
+        <v>105.1</v>
       </c>
       <c r="BE92" t="n" s="10">
-        <v>104.9</v>
+        <v>105.1</v>
       </c>
       <c r="BF92" t="n" s="10">
-        <v>104.9</v>
+        <v>105.2</v>
       </c>
       <c r="BG92" t="n" s="10">
-        <v>105.0</v>
+        <v>105.4</v>
       </c>
       <c r="BH92" t="n" s="10">
-        <v>105.2</v>
+        <v>105.7</v>
       </c>
       <c r="BI92" t="n" s="10">
-        <v>105.4</v>
+        <v>106.0</v>
       </c>
       <c r="BJ92" t="n" s="10">
-        <v>105.7</v>
+        <v>106.3</v>
       </c>
       <c r="BK92" t="n" s="10">
-        <v>105.8</v>
+        <v>106.5</v>
       </c>
       <c r="BL92" t="n" s="10">
-        <v>105.8</v>
+        <v>106.6</v>
       </c>
       <c r="BM92" t="n" s="10">
-        <v>105.7</v>
+        <v>106.3</v>
       </c>
       <c r="BN92" t="n" s="10">
+        <v>105.9</v>
+      </c>
+      <c r="BO92" t="n" s="10">
         <v>105.3</v>
       </c>
-      <c r="BO92" t="n" s="10">
-        <v>104.8</v>
-      </c>
       <c r="BP92" t="n" s="10">
-        <v>104.2</v>
+        <v>104.7</v>
       </c>
       <c r="BQ92" t="n" s="10">
-        <v>103.5</v>
+        <v>103.8</v>
       </c>
       <c r="BR92" t="n" s="10">
-        <v>102.7</v>
+        <v>102.9</v>
       </c>
       <c r="BS92" t="n" s="10">
-        <v>102.0</v>
+        <v>102.1</v>
       </c>
       <c r="BT92" t="n" s="10">
         <v>101.4</v>
@@ -33015,16 +33015,16 @@
         <v>100.9</v>
       </c>
       <c r="BV92" t="n" s="10">
+        <v>100.7</v>
+      </c>
+      <c r="BW92" t="n" s="10">
         <v>100.8</v>
       </c>
-      <c r="BW92" t="n" s="10">
-        <v>100.9</v>
-      </c>
       <c r="BX92" t="n" s="10">
-        <v>101.1</v>
+        <v>101.0</v>
       </c>
       <c r="BY92" t="n" s="10">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="BZ92" t="n" s="10">
         <v>101.9</v>
@@ -33060,10 +33060,10 @@
         <v>103.7</v>
       </c>
       <c r="CK92" t="n" s="10">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="CL92" t="n" s="10">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="CM92" t="n" s="10">
         <v>102.0</v>
@@ -33072,7 +33072,7 @@
         <v>101.2</v>
       </c>
       <c r="CO92" t="n" s="10">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="CP92" t="n" s="10">
         <v>99.5</v>
@@ -33090,7 +33090,7 @@
         <v>96.6</v>
       </c>
       <c r="CU92" t="n" s="10">
-        <v>96.0</v>
+        <v>96.1</v>
       </c>
       <c r="CV92" t="n" s="10">
         <v>95.6</v>
@@ -33135,7 +33135,7 @@
         <v>100.1</v>
       </c>
       <c r="DJ92" t="n" s="10">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="DK92" t="n" s="10">
         <v>100.3</v>
@@ -35157,7 +35157,7 @@
         <v>94.4</v>
       </c>
       <c r="DN98" t="n" s="10">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="DO98" t="n" s="10">
         <v>95.1</v>
@@ -35190,7 +35190,7 @@
         <v>98.4</v>
       </c>
       <c r="DY98" t="n" s="10">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="DZ98" t="n" s="10">
         <v>99.0</v>
@@ -36891,133 +36891,133 @@
         <v>84.4</v>
       </c>
       <c r="Z104" t="n" s="10">
+        <v>84.1</v>
+      </c>
+      <c r="AA104" t="n" s="10">
+        <v>84.1</v>
+      </c>
+      <c r="AB104" t="n" s="10">
+        <v>84.3</v>
+      </c>
+      <c r="AC104" t="n" s="10">
+        <v>84.5</v>
+      </c>
+      <c r="AD104" t="n" s="10">
         <v>84.7</v>
       </c>
-      <c r="AA104" t="n" s="10">
-        <v>84.6</v>
-      </c>
-      <c r="AB104" t="n" s="10">
-        <v>84.7</v>
-      </c>
-      <c r="AC104" t="n" s="10">
+      <c r="AE104" t="n" s="10">
         <v>84.8</v>
       </c>
-      <c r="AD104" t="n" s="10">
+      <c r="AF104" t="n" s="10">
         <v>84.8</v>
       </c>
-      <c r="AE104" t="n" s="10">
-        <v>84.7</v>
-      </c>
-      <c r="AF104" t="n" s="10">
-        <v>84.6</v>
-      </c>
       <c r="AG104" t="n" s="10">
+        <v>84.4</v>
+      </c>
+      <c r="AH104" t="n" s="10">
         <v>84.2</v>
       </c>
-      <c r="AH104" t="n" s="10">
+      <c r="AI104" t="n" s="10">
         <v>83.9</v>
       </c>
-      <c r="AI104" t="n" s="10">
+      <c r="AJ104" t="n" s="10">
         <v>83.5</v>
       </c>
-      <c r="AJ104" t="n" s="10">
-        <v>83.1</v>
-      </c>
       <c r="AK104" t="n" s="10">
-        <v>82.6</v>
+        <v>83.0</v>
       </c>
       <c r="AL104" t="n" s="10">
-        <v>82.0</v>
+        <v>82.4</v>
       </c>
       <c r="AM104" t="n" s="10">
-        <v>81.4</v>
+        <v>81.8</v>
       </c>
       <c r="AN104" t="n" s="10">
-        <v>80.9</v>
+        <v>81.2</v>
       </c>
       <c r="AO104" t="n" s="10">
-        <v>80.3</v>
+        <v>80.6</v>
       </c>
       <c r="AP104" t="n" s="10">
-        <v>79.7</v>
+        <v>79.9</v>
       </c>
       <c r="AQ104" t="n" s="10">
-        <v>79.0</v>
+        <v>79.2</v>
       </c>
       <c r="AR104" t="n" s="10">
-        <v>78.3</v>
+        <v>78.5</v>
       </c>
       <c r="AS104" t="n" s="10">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="AT104" t="n" s="10">
         <v>77.1</v>
       </c>
       <c r="AU104" t="n" s="10">
-        <v>76.5</v>
+        <v>76.4</v>
       </c>
       <c r="AV104" t="n" s="10">
-        <v>76.0</v>
+        <v>75.8</v>
       </c>
       <c r="AW104" t="n" s="10">
+        <v>75.5</v>
+      </c>
+      <c r="AX104" t="n" s="10">
+        <v>75.2</v>
+      </c>
+      <c r="AY104" t="n" s="10">
+        <v>75.0</v>
+      </c>
+      <c r="AZ104" t="n" s="10">
+        <v>74.7</v>
+      </c>
+      <c r="BA104" t="n" s="10">
+        <v>74.6</v>
+      </c>
+      <c r="BB104" t="n" s="10">
+        <v>74.5</v>
+      </c>
+      <c r="BC104" t="n" s="10">
+        <v>74.3</v>
+      </c>
+      <c r="BD104" t="n" s="10">
+        <v>74.2</v>
+      </c>
+      <c r="BE104" t="n" s="10">
+        <v>74.1</v>
+      </c>
+      <c r="BF104" t="n" s="10">
+        <v>74.2</v>
+      </c>
+      <c r="BG104" t="n" s="10">
+        <v>74.3</v>
+      </c>
+      <c r="BH104" t="n" s="10">
+        <v>74.5</v>
+      </c>
+      <c r="BI104" t="n" s="10">
+        <v>74.8</v>
+      </c>
+      <c r="BJ104" t="n" s="10">
+        <v>75.1</v>
+      </c>
+      <c r="BK104" t="n" s="10">
         <v>75.6</v>
       </c>
-      <c r="AX104" t="n" s="10">
-        <v>75.4</v>
-      </c>
-      <c r="AY104" t="n" s="10">
-        <v>75.1</v>
-      </c>
-      <c r="AZ104" t="n" s="10">
-        <v>74.9</v>
-      </c>
-      <c r="BA104" t="n" s="10">
-        <v>74.7</v>
-      </c>
-      <c r="BB104" t="n" s="10">
-        <v>74.6</v>
-      </c>
-      <c r="BC104" t="n" s="10">
-        <v>74.4</v>
-      </c>
-      <c r="BD104" t="n" s="10">
-        <v>74.3</v>
-      </c>
-      <c r="BE104" t="n" s="10">
-        <v>74.3</v>
-      </c>
-      <c r="BF104" t="n" s="10">
-        <v>74.4</v>
-      </c>
-      <c r="BG104" t="n" s="10">
-        <v>74.5</v>
-      </c>
-      <c r="BH104" t="n" s="10">
-        <v>74.7</v>
-      </c>
-      <c r="BI104" t="n" s="10">
-        <v>74.9</v>
-      </c>
-      <c r="BJ104" t="n" s="10">
-        <v>75.3</v>
-      </c>
-      <c r="BK104" t="n" s="10">
-        <v>75.8</v>
-      </c>
       <c r="BL104" t="n" s="10">
-        <v>76.6</v>
+        <v>76.4</v>
       </c>
       <c r="BM104" t="n" s="10">
-        <v>77.5</v>
+        <v>77.4</v>
       </c>
       <c r="BN104" t="n" s="10">
-        <v>78.6</v>
+        <v>78.5</v>
       </c>
       <c r="BO104" t="n" s="10">
-        <v>79.7</v>
+        <v>79.6</v>
       </c>
       <c r="BP104" t="n" s="10">
-        <v>80.9</v>
+        <v>80.8</v>
       </c>
       <c r="BQ104" t="n" s="10">
         <v>81.9</v>
@@ -37041,10 +37041,10 @@
         <v>83.8</v>
       </c>
       <c r="BX104" t="n" s="10">
-        <v>83.4</v>
+        <v>83.3</v>
       </c>
       <c r="BY104" t="n" s="10">
-        <v>83.0</v>
+        <v>82.9</v>
       </c>
       <c r="BZ104" t="n" s="10">
         <v>82.6</v>
@@ -37053,46 +37053,46 @@
         <v>82.5</v>
       </c>
       <c r="CB104" t="n" s="10">
+        <v>82.5</v>
+      </c>
+      <c r="CC104" t="n" s="10">
+        <v>82.5</v>
+      </c>
+      <c r="CD104" t="n" s="10">
+        <v>82.5</v>
+      </c>
+      <c r="CE104" t="n" s="10">
+        <v>82.5</v>
+      </c>
+      <c r="CF104" t="n" s="10">
+        <v>82.6</v>
+      </c>
+      <c r="CG104" t="n" s="10">
+        <v>82.8</v>
+      </c>
+      <c r="CH104" t="n" s="10">
+        <v>83.0</v>
+      </c>
+      <c r="CI104" t="n" s="10">
+        <v>83.0</v>
+      </c>
+      <c r="CJ104" t="n" s="10">
+        <v>82.7</v>
+      </c>
+      <c r="CK104" t="n" s="10">
         <v>82.4</v>
       </c>
-      <c r="CC104" t="n" s="10">
-        <v>82.4</v>
-      </c>
-      <c r="CD104" t="n" s="10">
-        <v>82.4</v>
-      </c>
-      <c r="CE104" t="n" s="10">
-        <v>82.3</v>
-      </c>
-      <c r="CF104" t="n" s="10">
-        <v>82.3</v>
-      </c>
-      <c r="CG104" t="n" s="10">
-        <v>82.5</v>
-      </c>
-      <c r="CH104" t="n" s="10">
-        <v>82.7</v>
-      </c>
-      <c r="CI104" t="n" s="10">
-        <v>82.6</v>
-      </c>
-      <c r="CJ104" t="n" s="10">
-        <v>82.4</v>
-      </c>
-      <c r="CK104" t="n" s="10">
-        <v>82.1</v>
-      </c>
       <c r="CL104" t="n" s="10">
-        <v>81.7</v>
+        <v>82.0</v>
       </c>
       <c r="CM104" t="n" s="10">
-        <v>81.4</v>
+        <v>81.6</v>
       </c>
       <c r="CN104" t="n" s="10">
-        <v>81.0</v>
+        <v>81.1</v>
       </c>
       <c r="CO104" t="n" s="10">
-        <v>80.6</v>
+        <v>80.7</v>
       </c>
       <c r="CP104" t="n" s="10">
         <v>80.4</v>
@@ -37101,25 +37101,25 @@
         <v>80.2</v>
       </c>
       <c r="CR104" t="n" s="10">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="CS104" t="n" s="10">
-        <v>80.5</v>
+        <v>80.4</v>
       </c>
       <c r="CT104" t="n" s="10">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="CU104" t="n" s="10">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="CV104" t="n" s="10">
-        <v>81.7</v>
+        <v>81.6</v>
       </c>
       <c r="CW104" t="n" s="10">
         <v>81.9</v>
       </c>
       <c r="CX104" t="n" s="10">
-        <v>82.0</v>
+        <v>81.9</v>
       </c>
       <c r="CY104" t="n" s="10">
         <v>81.8</v>
@@ -37131,7 +37131,7 @@
         <v>81.5</v>
       </c>
       <c r="DB104" t="n" s="10">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="DC104" t="n" s="10">
         <v>81.0</v>
@@ -37140,7 +37140,7 @@
         <v>80.8</v>
       </c>
       <c r="DE104" t="n" s="10">
-        <v>80.7</v>
+        <v>80.6</v>
       </c>
       <c r="DF104" t="n" s="10">
         <v>80.5</v>
@@ -37149,16 +37149,16 @@
         <v>80.6</v>
       </c>
       <c r="DH104" t="n" s="10">
-        <v>81.1</v>
+        <v>81.0</v>
       </c>
       <c r="DI104" t="n" s="10">
         <v>81.7</v>
       </c>
       <c r="DJ104" t="n" s="10">
-        <v>82.6</v>
+        <v>82.5</v>
       </c>
       <c r="DK104" t="n" s="10">
-        <v>83.6</v>
+        <v>83.5</v>
       </c>
       <c r="DL104" t="n" s="10">
         <v>84.7</v>
@@ -37179,40 +37179,40 @@
         <v>89.9</v>
       </c>
       <c r="DR104" t="n" s="10">
-        <v>90.5</v>
+        <v>90.7</v>
       </c>
       <c r="DS104" t="n" s="10">
-        <v>90.9</v>
+        <v>91.2</v>
       </c>
       <c r="DT104" t="n" s="10">
-        <v>91.1</v>
+        <v>91.3</v>
       </c>
       <c r="DU104" t="n" s="10">
-        <v>91.2</v>
+        <v>91.4</v>
       </c>
       <c r="DV104" t="n" s="10">
         <v>91.4</v>
       </c>
       <c r="DW104" t="n" s="10">
-        <v>91.6</v>
+        <v>91.3</v>
       </c>
       <c r="DX104" t="n" s="10">
-        <v>91.8</v>
+        <v>91.3</v>
       </c>
       <c r="DY104" t="n" s="10">
-        <v>92.0</v>
+        <v>91.2</v>
       </c>
       <c r="DZ104" t="n" s="10">
-        <v>92.2</v>
+        <v>91.0</v>
       </c>
       <c r="EA104" t="n" s="10">
-        <v>92.4</v>
+        <v>90.9</v>
       </c>
       <c r="EB104" t="n" s="10">
-        <v>92.6</v>
+        <v>90.9</v>
       </c>
       <c r="EC104" t="n" s="10">
-        <v>92.9</v>
+        <v>91.1</v>
       </c>
     </row>
     <row r="105" ht="22.5" customHeight="true">
@@ -38901,64 +38901,64 @@
         <v>81.4</v>
       </c>
       <c r="Z110" t="n" s="10">
+        <v>80.6</v>
+      </c>
+      <c r="AA110" t="n" s="10">
+        <v>80.7</v>
+      </c>
+      <c r="AB110" t="n" s="10">
+        <v>81.1</v>
+      </c>
+      <c r="AC110" t="n" s="10">
+        <v>81.4</v>
+      </c>
+      <c r="AD110" t="n" s="10">
+        <v>81.7</v>
+      </c>
+      <c r="AE110" t="n" s="10">
+        <v>81.9</v>
+      </c>
+      <c r="AF110" t="n" s="10">
+        <v>82.0</v>
+      </c>
+      <c r="AG110" t="n" s="10">
+        <v>81.8</v>
+      </c>
+      <c r="AH110" t="n" s="10">
+        <v>81.7</v>
+      </c>
+      <c r="AI110" t="n" s="10">
+        <v>81.5</v>
+      </c>
+      <c r="AJ110" t="n" s="10">
         <v>81.2</v>
       </c>
-      <c r="AA110" t="n" s="10">
-        <v>81.2</v>
-      </c>
-      <c r="AB110" t="n" s="10">
-        <v>81.5</v>
-      </c>
-      <c r="AC110" t="n" s="10">
-        <v>81.6</v>
-      </c>
-      <c r="AD110" t="n" s="10">
-        <v>81.8</v>
-      </c>
-      <c r="AE110" t="n" s="10">
-        <v>81.8</v>
-      </c>
-      <c r="AF110" t="n" s="10">
-        <v>81.9</v>
-      </c>
-      <c r="AG110" t="n" s="10">
-        <v>81.6</v>
-      </c>
-      <c r="AH110" t="n" s="10">
-        <v>81.5</v>
-      </c>
-      <c r="AI110" t="n" s="10">
-        <v>81.2</v>
-      </c>
-      <c r="AJ110" t="n" s="10">
-        <v>80.8</v>
-      </c>
       <c r="AK110" t="n" s="10">
-        <v>80.4</v>
+        <v>80.7</v>
       </c>
       <c r="AL110" t="n" s="10">
-        <v>79.9</v>
+        <v>80.2</v>
       </c>
       <c r="AM110" t="n" s="10">
-        <v>79.3</v>
+        <v>79.7</v>
       </c>
       <c r="AN110" t="n" s="10">
-        <v>78.7</v>
+        <v>79.1</v>
       </c>
       <c r="AO110" t="n" s="10">
-        <v>78.1</v>
+        <v>78.4</v>
       </c>
       <c r="AP110" t="n" s="10">
-        <v>77.4</v>
+        <v>77.7</v>
       </c>
       <c r="AQ110" t="n" s="10">
-        <v>76.7</v>
+        <v>76.9</v>
       </c>
       <c r="AR110" t="n" s="10">
-        <v>75.9</v>
+        <v>76.0</v>
       </c>
       <c r="AS110" t="n" s="10">
-        <v>75.1</v>
+        <v>75.2</v>
       </c>
       <c r="AT110" t="n" s="10">
         <v>74.4</v>
@@ -38967,67 +38967,67 @@
         <v>73.6</v>
       </c>
       <c r="AV110" t="n" s="10">
-        <v>73.0</v>
+        <v>72.9</v>
       </c>
       <c r="AW110" t="n" s="10">
-        <v>72.5</v>
+        <v>72.4</v>
       </c>
       <c r="AX110" t="n" s="10">
+        <v>72.0</v>
+      </c>
+      <c r="AY110" t="n" s="10">
+        <v>71.7</v>
+      </c>
+      <c r="AZ110" t="n" s="10">
+        <v>71.3</v>
+      </c>
+      <c r="BA110" t="n" s="10">
+        <v>71.2</v>
+      </c>
+      <c r="BB110" t="n" s="10">
+        <v>71.1</v>
+      </c>
+      <c r="BC110" t="n" s="10">
+        <v>70.9</v>
+      </c>
+      <c r="BD110" t="n" s="10">
+        <v>70.8</v>
+      </c>
+      <c r="BE110" t="n" s="10">
+        <v>70.8</v>
+      </c>
+      <c r="BF110" t="n" s="10">
+        <v>70.9</v>
+      </c>
+      <c r="BG110" t="n" s="10">
+        <v>71.1</v>
+      </c>
+      <c r="BH110" t="n" s="10">
+        <v>71.4</v>
+      </c>
+      <c r="BI110" t="n" s="10">
+        <v>71.7</v>
+      </c>
+      <c r="BJ110" t="n" s="10">
         <v>72.1</v>
       </c>
-      <c r="AY110" t="n" s="10">
-        <v>71.8</v>
-      </c>
-      <c r="AZ110" t="n" s="10">
-        <v>71.5</v>
-      </c>
-      <c r="BA110" t="n" s="10">
-        <v>71.3</v>
-      </c>
-      <c r="BB110" t="n" s="10">
-        <v>71.2</v>
-      </c>
-      <c r="BC110" t="n" s="10">
-        <v>71.0</v>
-      </c>
-      <c r="BD110" t="n" s="10">
-        <v>70.9</v>
-      </c>
-      <c r="BE110" t="n" s="10">
-        <v>71.0</v>
-      </c>
-      <c r="BF110" t="n" s="10">
-        <v>71.1</v>
-      </c>
-      <c r="BG110" t="n" s="10">
-        <v>71.3</v>
-      </c>
-      <c r="BH110" t="n" s="10">
-        <v>71.5</v>
-      </c>
-      <c r="BI110" t="n" s="10">
-        <v>71.9</v>
-      </c>
-      <c r="BJ110" t="n" s="10">
-        <v>72.3</v>
-      </c>
       <c r="BK110" t="n" s="10">
-        <v>72.8</v>
+        <v>72.6</v>
       </c>
       <c r="BL110" t="n" s="10">
-        <v>73.6</v>
+        <v>73.5</v>
       </c>
       <c r="BM110" t="n" s="10">
-        <v>74.6</v>
+        <v>74.4</v>
       </c>
       <c r="BN110" t="n" s="10">
-        <v>75.7</v>
+        <v>75.5</v>
       </c>
       <c r="BO110" t="n" s="10">
-        <v>76.8</v>
+        <v>76.7</v>
       </c>
       <c r="BP110" t="n" s="10">
-        <v>77.9</v>
+        <v>77.8</v>
       </c>
       <c r="BQ110" t="n" s="10">
         <v>78.9</v>
@@ -39036,73 +39036,73 @@
         <v>79.8</v>
       </c>
       <c r="BS110" t="n" s="10">
-        <v>80.5</v>
+        <v>80.6</v>
       </c>
       <c r="BT110" t="n" s="10">
-        <v>81.0</v>
+        <v>81.1</v>
       </c>
       <c r="BU110" t="n" s="10">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="BV110" t="n" s="10">
-        <v>81.2</v>
+        <v>81.1</v>
       </c>
       <c r="BW110" t="n" s="10">
         <v>80.8</v>
       </c>
       <c r="BX110" t="n" s="10">
-        <v>80.5</v>
+        <v>80.4</v>
       </c>
       <c r="BY110" t="n" s="10">
-        <v>80.1</v>
+        <v>80.0</v>
       </c>
       <c r="BZ110" t="n" s="10">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="CA110" t="n" s="10">
         <v>79.7</v>
       </c>
       <c r="CB110" t="n" s="10">
-        <v>79.6</v>
+        <v>79.7</v>
       </c>
       <c r="CC110" t="n" s="10">
-        <v>79.6</v>
+        <v>79.7</v>
       </c>
       <c r="CD110" t="n" s="10">
-        <v>79.6</v>
+        <v>79.7</v>
       </c>
       <c r="CE110" t="n" s="10">
+        <v>79.7</v>
+      </c>
+      <c r="CF110" t="n" s="10">
+        <v>79.7</v>
+      </c>
+      <c r="CG110" t="n" s="10">
+        <v>79.8</v>
+      </c>
+      <c r="CH110" t="n" s="10">
+        <v>80.0</v>
+      </c>
+      <c r="CI110" t="n" s="10">
+        <v>79.9</v>
+      </c>
+      <c r="CJ110" t="n" s="10">
         <v>79.5</v>
       </c>
-      <c r="CF110" t="n" s="10">
-        <v>79.5</v>
-      </c>
-      <c r="CG110" t="n" s="10">
-        <v>79.6</v>
-      </c>
-      <c r="CH110" t="n" s="10">
-        <v>79.6</v>
-      </c>
-      <c r="CI110" t="n" s="10">
-        <v>79.5</v>
-      </c>
-      <c r="CJ110" t="n" s="10">
-        <v>79.2</v>
-      </c>
       <c r="CK110" t="n" s="10">
-        <v>78.8</v>
+        <v>79.1</v>
       </c>
       <c r="CL110" t="n" s="10">
-        <v>78.4</v>
+        <v>78.7</v>
       </c>
       <c r="CM110" t="n" s="10">
-        <v>78.0</v>
+        <v>78.2</v>
       </c>
       <c r="CN110" t="n" s="10">
-        <v>77.6</v>
+        <v>77.8</v>
       </c>
       <c r="CO110" t="n" s="10">
-        <v>77.3</v>
+        <v>77.4</v>
       </c>
       <c r="CP110" t="n" s="10">
         <v>77.1</v>
@@ -39111,22 +39111,22 @@
         <v>76.9</v>
       </c>
       <c r="CR110" t="n" s="10">
+        <v>76.8</v>
+      </c>
+      <c r="CS110" t="n" s="10">
         <v>76.9</v>
       </c>
-      <c r="CS110" t="n" s="10">
-        <v>77.0</v>
-      </c>
       <c r="CT110" t="n" s="10">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="CU110" t="n" s="10">
-        <v>77.7</v>
+        <v>77.6</v>
       </c>
       <c r="CV110" t="n" s="10">
-        <v>78.1</v>
+        <v>78.0</v>
       </c>
       <c r="CW110" t="n" s="10">
-        <v>78.3</v>
+        <v>78.2</v>
       </c>
       <c r="CX110" t="n" s="10">
         <v>78.3</v>
@@ -39138,91 +39138,91 @@
         <v>78.1</v>
       </c>
       <c r="DA110" t="n" s="10">
-        <v>78.0</v>
+        <v>77.9</v>
       </c>
       <c r="DB110" t="n" s="10">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="DC110" t="n" s="10">
-        <v>77.6</v>
+        <v>77.5</v>
       </c>
       <c r="DD110" t="n" s="10">
         <v>77.6</v>
       </c>
       <c r="DE110" t="n" s="10">
-        <v>77.6</v>
+        <v>77.5</v>
       </c>
       <c r="DF110" t="n" s="10">
+        <v>77.4</v>
+      </c>
+      <c r="DG110" t="n" s="10">
         <v>77.5</v>
       </c>
-      <c r="DG110" t="n" s="10">
-        <v>77.6</v>
-      </c>
       <c r="DH110" t="n" s="10">
-        <v>77.9</v>
+        <v>77.8</v>
       </c>
       <c r="DI110" t="n" s="10">
-        <v>78.4</v>
+        <v>78.3</v>
       </c>
       <c r="DJ110" t="n" s="10">
-        <v>79.0</v>
+        <v>78.9</v>
       </c>
       <c r="DK110" t="n" s="10">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="DL110" t="n" s="10">
-        <v>80.7</v>
+        <v>80.5</v>
       </c>
       <c r="DM110" t="n" s="10">
-        <v>81.6</v>
+        <v>81.5</v>
       </c>
       <c r="DN110" t="n" s="10">
-        <v>82.5</v>
+        <v>82.4</v>
       </c>
       <c r="DO110" t="n" s="10">
-        <v>83.4</v>
+        <v>83.3</v>
       </c>
       <c r="DP110" t="n" s="10">
-        <v>84.1</v>
+        <v>84.0</v>
       </c>
       <c r="DQ110" t="n" s="10">
-        <v>84.7</v>
+        <v>84.6</v>
       </c>
       <c r="DR110" t="n" s="10">
-        <v>85.4</v>
+        <v>85.5</v>
       </c>
       <c r="DS110" t="n" s="10">
-        <v>86.0</v>
+        <v>86.2</v>
       </c>
       <c r="DT110" t="n" s="10">
-        <v>86.4</v>
+        <v>86.5</v>
       </c>
       <c r="DU110" t="n" s="10">
-        <v>86.8</v>
+        <v>86.9</v>
       </c>
       <c r="DV110" t="n" s="10">
-        <v>87.4</v>
+        <v>87.3</v>
       </c>
       <c r="DW110" t="n" s="10">
-        <v>88.0</v>
+        <v>87.7</v>
       </c>
       <c r="DX110" t="n" s="10">
-        <v>88.7</v>
+        <v>88.1</v>
       </c>
       <c r="DY110" t="n" s="10">
-        <v>89.3</v>
+        <v>88.5</v>
       </c>
       <c r="DZ110" t="n" s="10">
-        <v>89.9</v>
+        <v>88.8</v>
       </c>
       <c r="EA110" t="n" s="10">
-        <v>90.5</v>
+        <v>89.1</v>
       </c>
       <c r="EB110" t="n" s="10">
-        <v>91.0</v>
+        <v>89.4</v>
       </c>
       <c r="EC110" t="n" s="10">
-        <v>91.5</v>
+        <v>89.7</v>
       </c>
     </row>
     <row r="111" ht="22.5" customHeight="true">
@@ -40947,7 +40947,7 @@
         <v>86.9</v>
       </c>
       <c r="AL116" t="n" s="10">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="AM116" t="n" s="10">
         <v>85.6</v>
@@ -41088,7 +41088,7 @@
         <v>87.9</v>
       </c>
       <c r="CG116" t="n" s="10">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="CH116" t="n" s="10">
         <v>88.6</v>
@@ -41196,7 +41196,7 @@
         <v>94.5</v>
       </c>
       <c r="DQ116" t="n" s="10">
-        <v>95.4</v>
+        <v>95.3</v>
       </c>
       <c r="DR116" t="n" s="10">
         <v>96.2</v>
@@ -43194,10 +43194,10 @@
         <v>105.2</v>
       </c>
       <c r="DM122" t="n" s="10">
-        <v>105.1</v>
+        <v>105.0</v>
       </c>
       <c r="DN122" t="n" s="10">
-        <v>105.0</v>
+        <v>104.9</v>
       </c>
       <c r="DO122" t="n" s="10">
         <v>104.9</v>
@@ -43212,13 +43212,13 @@
         <v>105.3</v>
       </c>
       <c r="DS122" t="n" s="10">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
       <c r="DT122" t="n" s="10">
         <v>105.7</v>
       </c>
       <c r="DU122" t="n" s="10">
-        <v>106.1</v>
+        <v>106.0</v>
       </c>
       <c r="DV122" t="n" s="10">
         <v>106.5</v>
@@ -43227,7 +43227,7 @@
         <v>106.9</v>
       </c>
       <c r="DX122" t="n" s="10">
-        <v>107.4</v>
+        <v>107.3</v>
       </c>
       <c r="DY122" t="n" s="10">
         <v>107.8</v>
@@ -43239,7 +43239,7 @@
         <v>108.4</v>
       </c>
       <c r="EB122" t="n" s="10">
-        <v>108.7</v>
+        <v>108.6</v>
       </c>
       <c r="EC122" t="n" s="10">
         <v>108.6</v>
@@ -45225,7 +45225,7 @@
         <v>96.8</v>
       </c>
       <c r="DT128" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="DU128" t="n" s="10">
         <v>97.8</v>
@@ -45240,16 +45240,16 @@
         <v>98.5</v>
       </c>
       <c r="DY128" t="n" s="10">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="DZ128" t="n" s="10">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="EA128" t="n" s="10">
         <v>98.5</v>
       </c>
       <c r="EB128" t="n" s="10">
-        <v>98.5</v>
+        <v>98.4</v>
       </c>
       <c r="EC128" t="n" s="10">
         <v>98.3</v>
@@ -46947,7 +46947,7 @@
         <v>74.0</v>
       </c>
       <c r="AB134" t="n" s="10">
-        <v>73.8</v>
+        <v>73.9</v>
       </c>
       <c r="AC134" t="n" s="10">
         <v>73.6</v>
@@ -46971,7 +46971,7 @@
         <v>74.8</v>
       </c>
       <c r="AJ134" t="n" s="10">
-        <v>75.2</v>
+        <v>75.1</v>
       </c>
       <c r="AK134" t="n" s="10">
         <v>75.5</v>
@@ -47025,7 +47025,7 @@
         <v>79.9</v>
       </c>
       <c r="BB134" t="n" s="10">
-        <v>80.4</v>
+        <v>80.3</v>
       </c>
       <c r="BC134" t="n" s="10">
         <v>80.9</v>
@@ -47037,7 +47037,7 @@
         <v>82.0</v>
       </c>
       <c r="BF134" t="n" s="10">
-        <v>82.6</v>
+        <v>82.5</v>
       </c>
       <c r="BG134" t="n" s="10">
         <v>83.1</v>
@@ -47070,7 +47070,7 @@
         <v>88.2</v>
       </c>
       <c r="BQ134" t="n" s="10">
-        <v>88.9</v>
+        <v>89.0</v>
       </c>
       <c r="BR134" t="n" s="10">
         <v>89.6</v>
@@ -47094,7 +47094,7 @@
         <v>93.3</v>
       </c>
       <c r="BY134" t="n" s="10">
-        <v>93.9</v>
+        <v>94.0</v>
       </c>
       <c r="BZ134" t="n" s="10">
         <v>94.6</v>
@@ -47187,10 +47187,10 @@
         <v>76.1</v>
       </c>
       <c r="DD134" t="n" s="10">
-        <v>76.7</v>
+        <v>76.6</v>
       </c>
       <c r="DE134" t="n" s="10">
-        <v>77.5</v>
+        <v>77.4</v>
       </c>
       <c r="DF134" t="n" s="10">
         <v>78.4</v>
@@ -47250,7 +47250,7 @@
         <v>96.2</v>
       </c>
       <c r="DY134" t="n" s="10">
-        <v>96.7</v>
+        <v>96.6</v>
       </c>
       <c r="DZ134" t="n" s="10">
         <v>97.0</v>
@@ -48969,7 +48969,7 @@
         <v>90.7</v>
       </c>
       <c r="AF140" t="n" s="10">
-        <v>90.8</v>
+        <v>90.7</v>
       </c>
       <c r="AG140" t="n" s="10">
         <v>90.9</v>
@@ -48984,7 +48984,7 @@
         <v>91.0</v>
       </c>
       <c r="AK140" t="n" s="10">
-        <v>91.1</v>
+        <v>91.0</v>
       </c>
       <c r="AL140" t="n" s="10">
         <v>91.1</v>
@@ -49008,13 +49008,13 @@
         <v>91.0</v>
       </c>
       <c r="AS140" t="n" s="10">
-        <v>90.9</v>
+        <v>91.0</v>
       </c>
       <c r="AT140" t="n" s="10">
         <v>90.9</v>
       </c>
       <c r="AU140" t="n" s="10">
-        <v>90.9</v>
+        <v>91.0</v>
       </c>
       <c r="AV140" t="n" s="10">
         <v>91.0</v>
@@ -49044,19 +49044,19 @@
         <v>93.0</v>
       </c>
       <c r="BE140" t="n" s="10">
-        <v>93.4</v>
+        <v>93.3</v>
       </c>
       <c r="BF140" t="n" s="10">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
       <c r="BG140" t="n" s="10">
         <v>93.9</v>
       </c>
       <c r="BH140" t="n" s="10">
-        <v>94.1</v>
+        <v>94.0</v>
       </c>
       <c r="BI140" t="n" s="10">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="BJ140" t="n" s="10">
         <v>94.5</v>
@@ -49107,7 +49107,7 @@
         <v>101.1</v>
       </c>
       <c r="BZ140" t="n" s="10">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="CA140" t="n" s="10">
         <v>101.6</v>
@@ -49122,7 +49122,7 @@
         <v>101.9</v>
       </c>
       <c r="CE140" t="n" s="10">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="CF140" t="n" s="10">
         <v>101.8</v>
@@ -49131,7 +49131,7 @@
         <v>101.8</v>
       </c>
       <c r="CH140" t="n" s="10">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="CI140" t="n" s="10">
         <v>101.7</v>
@@ -49149,22 +49149,22 @@
         <v>100.1</v>
       </c>
       <c r="CN140" t="n" s="10">
-        <v>99.5</v>
+        <v>99.4</v>
       </c>
       <c r="CO140" t="n" s="10">
         <v>98.6</v>
       </c>
       <c r="CP140" t="n" s="10">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="CQ140" t="n" s="10">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="CR140" t="n" s="10">
         <v>95.7</v>
       </c>
       <c r="CS140" t="n" s="10">
-        <v>94.7</v>
+        <v>94.6</v>
       </c>
       <c r="CT140" t="n" s="10">
         <v>93.7</v>
@@ -49239,7 +49239,7 @@
         <v>97.5</v>
       </c>
       <c r="DR140" t="n" s="10">
-        <v>97.9</v>
+        <v>98.0</v>
       </c>
       <c r="DS140" t="n" s="10">
         <v>98.2</v>
@@ -50973,13 +50973,13 @@
         <v>93.7</v>
       </c>
       <c r="AD146" t="n" s="10">
-        <v>93.8</v>
+        <v>93.9</v>
       </c>
       <c r="AE146" t="n" s="10">
-        <v>93.9</v>
+        <v>94.0</v>
       </c>
       <c r="AF146" t="n" s="10">
-        <v>93.9</v>
+        <v>94.0</v>
       </c>
       <c r="AG146" t="n" s="10">
         <v>93.9</v>
@@ -51018,7 +51018,7 @@
         <v>94.2</v>
       </c>
       <c r="AS146" t="n" s="10">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="AT146" t="n" s="10">
         <v>94.5</v>
@@ -51057,7 +51057,7 @@
         <v>98.8</v>
       </c>
       <c r="BF146" t="n" s="10">
-        <v>99.2</v>
+        <v>99.1</v>
       </c>
       <c r="BG146" t="n" s="10">
         <v>99.4</v>
@@ -51090,7 +51090,7 @@
         <v>100.4</v>
       </c>
       <c r="BQ146" t="n" s="10">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="BR146" t="n" s="10">
         <v>100.7</v>
@@ -51099,10 +51099,10 @@
         <v>100.9</v>
       </c>
       <c r="BT146" t="n" s="10">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="BU146" t="n" s="10">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="BV146" t="n" s="10">
         <v>101.5</v>
@@ -51180,7 +51180,7 @@
         <v>99.2</v>
       </c>
       <c r="CU146" t="n" s="10">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="CV146" t="n" s="10">
         <v>99.2</v>
@@ -51243,7 +51243,7 @@
         <v>100.2</v>
       </c>
       <c r="DP146" t="n" s="10">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="DQ146" t="n" s="10">
         <v>100.3</v>
@@ -53028,7 +53028,7 @@
         <v>85.7</v>
       </c>
       <c r="AS152" t="n" s="10">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="AT152" t="n" s="10">
         <v>86.5</v>
@@ -53073,7 +53073,7 @@
         <v>91.0</v>
       </c>
       <c r="BH152" t="n" s="10">
-        <v>91.2</v>
+        <v>91.3</v>
       </c>
       <c r="BI152" t="n" s="10">
         <v>91.5</v>
@@ -53085,7 +53085,7 @@
         <v>92.1</v>
       </c>
       <c r="BL152" t="n" s="10">
-        <v>92.3</v>
+        <v>92.4</v>
       </c>
       <c r="BM152" t="n" s="10">
         <v>92.7</v>
@@ -53115,7 +53115,7 @@
         <v>96.8</v>
       </c>
       <c r="BV152" t="n" s="10">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="BW152" t="n" s="10">
         <v>97.8</v>
@@ -54993,19 +54993,19 @@
         <v>82.5</v>
       </c>
       <c r="AD158" t="n" s="10">
+        <v>82.5</v>
+      </c>
+      <c r="AE158" t="n" s="10">
         <v>82.6</v>
       </c>
-      <c r="AE158" t="n" s="10">
-        <v>82.7</v>
-      </c>
       <c r="AF158" t="n" s="10">
-        <v>83.0</v>
+        <v>82.9</v>
       </c>
       <c r="AG158" t="n" s="10">
-        <v>83.5</v>
+        <v>83.4</v>
       </c>
       <c r="AH158" t="n" s="10">
-        <v>83.9</v>
+        <v>83.8</v>
       </c>
       <c r="AI158" t="n" s="10">
         <v>84.2</v>
@@ -55029,31 +55029,31 @@
         <v>85.9</v>
       </c>
       <c r="AP158" t="n" s="10">
-        <v>86.0</v>
+        <v>86.1</v>
       </c>
       <c r="AQ158" t="n" s="10">
         <v>86.1</v>
       </c>
       <c r="AR158" t="n" s="10">
-        <v>86.1</v>
+        <v>86.2</v>
       </c>
       <c r="AS158" t="n" s="10">
-        <v>86.1</v>
+        <v>86.2</v>
       </c>
       <c r="AT158" t="n" s="10">
         <v>86.1</v>
       </c>
       <c r="AU158" t="n" s="10">
+        <v>86.1</v>
+      </c>
+      <c r="AV158" t="n" s="10">
         <v>86.0</v>
-      </c>
-      <c r="AV158" t="n" s="10">
-        <v>85.9</v>
       </c>
       <c r="AW158" t="n" s="10">
         <v>85.9</v>
       </c>
       <c r="AX158" t="n" s="10">
-        <v>85.9</v>
+        <v>86.0</v>
       </c>
       <c r="AY158" t="n" s="10">
         <v>86.0</v>
@@ -55083,7 +55083,7 @@
         <v>88.1</v>
       </c>
       <c r="BH158" t="n" s="10">
-        <v>88.6</v>
+        <v>88.5</v>
       </c>
       <c r="BI158" t="n" s="10">
         <v>89.1</v>
@@ -55098,7 +55098,7 @@
         <v>91.2</v>
       </c>
       <c r="BM158" t="n" s="10">
-        <v>92.1</v>
+        <v>92.0</v>
       </c>
       <c r="BN158" t="n" s="10">
         <v>92.9</v>
@@ -55110,13 +55110,13 @@
         <v>94.5</v>
       </c>
       <c r="BQ158" t="n" s="10">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="BR158" t="n" s="10">
         <v>96.0</v>
       </c>
       <c r="BS158" t="n" s="10">
-        <v>96.7</v>
+        <v>96.6</v>
       </c>
       <c r="BT158" t="n" s="10">
         <v>97.3</v>
@@ -55125,7 +55125,7 @@
         <v>97.9</v>
       </c>
       <c r="BV158" t="n" s="10">
-        <v>98.4</v>
+        <v>98.3</v>
       </c>
       <c r="BW158" t="n" s="10">
         <v>98.7</v>
@@ -55140,22 +55140,22 @@
         <v>99.7</v>
       </c>
       <c r="CA158" t="n" s="10">
-        <v>100.0</v>
+        <v>100.1</v>
       </c>
       <c r="CB158" t="n" s="10">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="CC158" t="n" s="10">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="CD158" t="n" s="10">
         <v>101.0</v>
       </c>
       <c r="CE158" t="n" s="10">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="CF158" t="n" s="10">
-        <v>102.0</v>
+        <v>102.1</v>
       </c>
       <c r="CG158" t="n" s="10">
         <v>102.7</v>
@@ -55176,52 +55176,52 @@
         <v>103.0</v>
       </c>
       <c r="CM158" t="n" s="10">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="CN158" t="n" s="10">
-        <v>99.9</v>
+        <v>100.0</v>
       </c>
       <c r="CO158" t="n" s="10">
-        <v>97.6</v>
+        <v>97.8</v>
       </c>
       <c r="CP158" t="n" s="10">
-        <v>94.9</v>
+        <v>95.2</v>
       </c>
       <c r="CQ158" t="n" s="10">
-        <v>91.9</v>
+        <v>92.2</v>
       </c>
       <c r="CR158" t="n" s="10">
-        <v>88.7</v>
+        <v>89.1</v>
       </c>
       <c r="CS158" t="n" s="10">
-        <v>85.6</v>
+        <v>86.0</v>
       </c>
       <c r="CT158" t="n" s="10">
-        <v>82.7</v>
+        <v>83.1</v>
       </c>
       <c r="CU158" t="n" s="10">
-        <v>80.1</v>
+        <v>80.6</v>
       </c>
       <c r="CV158" t="n" s="10">
-        <v>78.0</v>
+        <v>78.4</v>
       </c>
       <c r="CW158" t="n" s="10">
-        <v>76.4</v>
+        <v>76.7</v>
       </c>
       <c r="CX158" t="n" s="10">
-        <v>75.4</v>
+        <v>75.7</v>
       </c>
       <c r="CY158" t="n" s="10">
-        <v>75.0</v>
+        <v>75.2</v>
       </c>
       <c r="CZ158" t="n" s="10">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="DA158" t="n" s="10">
-        <v>75.9</v>
+        <v>76.0</v>
       </c>
       <c r="DB158" t="n" s="10">
-        <v>77.0</v>
+        <v>77.1</v>
       </c>
       <c r="DC158" t="n" s="10">
         <v>78.5</v>
@@ -55245,7 +55245,7 @@
         <v>87.1</v>
       </c>
       <c r="DJ158" t="n" s="10">
-        <v>88.0</v>
+        <v>88.1</v>
       </c>
       <c r="DK158" t="n" s="10">
         <v>89.0</v>
@@ -55260,13 +55260,13 @@
         <v>91.7</v>
       </c>
       <c r="DO158" t="n" s="10">
-        <v>92.6</v>
+        <v>92.7</v>
       </c>
       <c r="DP158" t="n" s="10">
         <v>93.5</v>
       </c>
       <c r="DQ158" t="n" s="10">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="DR158" t="n" s="10">
         <v>95.2</v>
@@ -57006,7 +57006,7 @@
         <v>65.3</v>
       </c>
       <c r="AE164" t="n" s="10">
-        <v>65.4</v>
+        <v>65.5</v>
       </c>
       <c r="AF164" t="n" s="10">
         <v>65.8</v>
@@ -57027,13 +57027,13 @@
         <v>68.1</v>
       </c>
       <c r="AL164" t="n" s="10">
-        <v>68.6</v>
+        <v>68.5</v>
       </c>
       <c r="AM164" t="n" s="10">
-        <v>69.1</v>
+        <v>69.0</v>
       </c>
       <c r="AN164" t="n" s="10">
-        <v>69.5</v>
+        <v>69.4</v>
       </c>
       <c r="AO164" t="n" s="10">
         <v>69.8</v>
@@ -57042,7 +57042,7 @@
         <v>70.2</v>
       </c>
       <c r="AQ164" t="n" s="10">
-        <v>70.5</v>
+        <v>70.4</v>
       </c>
       <c r="AR164" t="n" s="10">
         <v>70.7</v>
@@ -57060,13 +57060,13 @@
         <v>71.8</v>
       </c>
       <c r="AW164" t="n" s="10">
-        <v>72.3</v>
+        <v>72.2</v>
       </c>
       <c r="AX164" t="n" s="10">
         <v>72.8</v>
       </c>
       <c r="AY164" t="n" s="10">
-        <v>73.4</v>
+        <v>73.3</v>
       </c>
       <c r="AZ164" t="n" s="10">
         <v>73.9</v>
@@ -57084,10 +57084,10 @@
         <v>76.9</v>
       </c>
       <c r="BE164" t="n" s="10">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="BF164" t="n" s="10">
-        <v>78.7</v>
+        <v>78.6</v>
       </c>
       <c r="BG164" t="n" s="10">
         <v>79.5</v>
@@ -57129,7 +57129,7 @@
         <v>89.8</v>
       </c>
       <c r="BT164" t="n" s="10">
-        <v>90.5</v>
+        <v>90.6</v>
       </c>
       <c r="BU164" t="n" s="10">
         <v>91.3</v>
@@ -57138,13 +57138,13 @@
         <v>92.0</v>
       </c>
       <c r="BW164" t="n" s="10">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="BX164" t="n" s="10">
         <v>93.5</v>
       </c>
       <c r="BY164" t="n" s="10">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="BZ164" t="n" s="10">
         <v>95.0</v>
@@ -57237,7 +57237,7 @@
         <v>78.5</v>
       </c>
       <c r="DD164" t="n" s="10">
-        <v>79.9</v>
+        <v>79.8</v>
       </c>
       <c r="DE164" t="n" s="10">
         <v>81.4</v>
@@ -57252,7 +57252,7 @@
         <v>86.2</v>
       </c>
       <c r="DI164" t="n" s="10">
-        <v>87.7</v>
+        <v>87.6</v>
       </c>
       <c r="DJ164" t="n" s="10">
         <v>89.0</v>
@@ -57384,7 +57384,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 10:01:52&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 10:56:46&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>